--- a/Storage_Tower_Old/5_Components Required/components_FinaList (1).xlsx
+++ b/Storage_Tower_Old/5_Components Required/components_FinaList (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HARSHA T\OneDrive\Desktop\Duxes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Storage_Tower\Storage_Tower_Old\5_Components Required\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9040D509-E10C-42D9-B0D1-E8C242234065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC98A09-A3BF-4BDD-849B-32A3890003CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{668D7403-BE19-49E1-B5D1-FF2218C6801E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{668D7403-BE19-49E1-B5D1-FF2218C6801E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -218,14 +218,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -550,15 +549,15 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="58.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.08984375" customWidth="1"/>
-    <col min="3" max="3" width="21.453125" customWidth="1"/>
-    <col min="4" max="4" width="90.26953125" customWidth="1"/>
+    <col min="1" max="1" width="58.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="90.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -572,8 +571,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -587,7 +586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -601,7 +600,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -615,7 +614,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -629,7 +628,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -643,7 +642,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -657,7 +656,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -671,7 +670,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
@@ -685,7 +684,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -699,7 +698,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
@@ -713,7 +712,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
@@ -727,8 +726,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B14">
@@ -741,7 +740,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>28</v>
       </c>
@@ -755,7 +754,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -769,7 +768,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>32</v>
       </c>
@@ -783,7 +782,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>13</v>
       </c>
@@ -796,8 +795,8 @@
         <v>6911</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="7" t="s">
+    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
         <v>36</v>
       </c>
       <c r="C20">
